--- a/app/questions.xlsx
+++ b/app/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\TestProject\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5156A52-012D-46FC-A194-E56A98C3B64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A285E7DF-9604-4804-BD9A-33D0FDD7C501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="827" activeTab="3" xr2:uid="{1FAB60E3-CEBA-45DF-A5B7-CF6C31EFAE4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="827" activeTab="1" xr2:uid="{1FAB60E3-CEBA-45DF-A5B7-CF6C31EFAE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="전체" sheetId="11" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">기초이론_최성봉M!$A$1:$K$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">동ca_김관호M!$A$1:$J$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">동ca_이남훈M!$A$1:$J$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">시스템_홍현화M!$A$1:$J$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">시스템_홍현화M!$A$1:$J$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'전주-한전공가_이재룡M'!$A$1:$J$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'전주-한전공가_임종현M'!$A$1:$J$39</definedName>
   </definedNames>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3058" uniqueCount="1278">
   <si>
     <t>문항명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5169,10 +5169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>접속점 또는 단자함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신품케이블 불용기준으로 틀린것은?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5213,10 +5209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25-46-중(젤)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>동케이블 접속공정 산출 시 유의사항으로 틀린것은?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5265,10 +5257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>립 코드(Rip Cord)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공기주입기로부터 나오는 건조공기를 각 휘이다 케이블로 주입하기 위한 분배장치로 휘이다 케이블에서 소요된 공기량과 휘다별 공기유동량을 나타내는 장치</t>
   </si>
   <si>
@@ -5717,13 +5705,6 @@
  ㎡
  ㎥
  a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5
- 2
- 5
- 3
- 5</t>
   </si>
   <si>
     <t xml:space="preserve"> 5
@@ -6992,6 +6973,42 @@
  차량진행방향과 평행하게 굴착하는 경우 15m이하.
  도로의 굴착부분의 길이가 10미터이하이고 너비가 2m이하인 굴착공사.
  차량진행방향과 평행하게 굴착하는 경우 20m이하.    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주관식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속점 또는 단자함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25-46-중(젤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>립 코드(Rip Cord)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타판넬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙하 방지용 고무플러그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1
+ 2
+ 3
+ 4
+ 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7803,120 +7820,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>79098</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3132068</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="그룹 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268CBE42-63E8-4D1B-9E25-8ECCE584DA3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="15804873" y="37347525"/>
-          <a:ext cx="3052970" cy="19050"/>
-          <a:chOff x="13604598" y="14859000"/>
-          <a:chExt cx="3052970" cy="352425"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="그림 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B04D3EC8-9959-4005-B968-B2526368A093}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-          <a:srcRect l="58728" t="92668" r="1933" b="1112"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13604598" y="14866040"/>
-            <a:ext cx="3052970" cy="329944"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="직사각형 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEDFAC5-4325-4129-A6A3-E916E1B9EEC3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14125575" y="14859000"/>
-            <a:ext cx="1771650" cy="352425"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8860,10 +8763,10 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="E4" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>511</v>
@@ -9620,10 +9523,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A22AA-6EFF-4096-95DD-32A04A8B84C6}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9670,7 +9574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>995</v>
       </c>
@@ -9702,7 +9606,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>997</v>
       </c>
@@ -9734,7 +9638,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>999</v>
       </c>
@@ -9766,7 +9670,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>1001</v>
       </c>
@@ -9798,7 +9702,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>1003</v>
       </c>
@@ -9830,7 +9734,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1005</v>
       </c>
@@ -9862,7 +9766,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
         <v>1007</v>
       </c>
@@ -9905,13 +9809,13 @@
         <f>VLOOKUP(B9,[9]참고사항!A$2:B$4,2,0)</f>
         <v>31</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>1010</v>
-      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>1271</v>
+      </c>
       <c r="G9" s="4">
         <v>20</v>
       </c>
@@ -9924,9 +9828,9 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -9936,7 +9840,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -9956,9 +9860,9 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>9</v>
@@ -9968,7 +9872,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -9988,9 +9892,9 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
@@ -10000,7 +9904,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -10022,7 +9926,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>221</v>
@@ -10031,13 +9935,13 @@
         <f>VLOOKUP(B13,[9]참고사항!A$2:B$4,2,0)</f>
         <v>31</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>1018</v>
-      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>1272</v>
+      </c>
       <c r="G13" s="4">
         <v>20</v>
       </c>
@@ -10050,9 +9954,9 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>9</v>
@@ -10062,7 +9966,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -10082,9 +9986,9 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>9</v>
@@ -10094,7 +9998,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -10116,7 +10020,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>221</v>
@@ -10126,12 +10030,14 @@
         <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>1273</v>
+      </c>
       <c r="G16" s="4">
         <v>20</v>
       </c>
@@ -10144,9 +10050,9 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -10156,7 +10062,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -10178,7 +10084,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>221</v>
@@ -10187,14 +10093,12 @@
         <f>VLOOKUP(B18,[9]참고사항!A$2:B$4,2,0)</f>
         <v>31</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>1028</v>
-      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="F18" s="4">
-        <v>5</v>
+      <c r="F18" s="4" t="s">
+        <v>1274</v>
       </c>
       <c r="G18" s="4">
         <v>20</v>
@@ -10210,7 +10114,7 @@
     </row>
     <row r="19" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>221</v>
@@ -10220,13 +10124,13 @@
         <v>31</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="4">
-        <v>5</v>
+      <c r="F19" s="4" t="s">
+        <v>1275</v>
       </c>
       <c r="G19" s="4">
         <v>20</v>
@@ -10240,9 +10144,9 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>9</v>
@@ -10252,7 +10156,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -10272,9 +10176,9 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>9</v>
@@ -10284,7 +10188,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -10306,22 +10210,24 @@
     </row>
     <row r="22" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>221</v>
+        <v>1270</v>
       </c>
       <c r="C22" s="5">
         <f>VLOOKUP(B22,[9]참고사항!A$2:B$4,2,0)</f>
         <v>31</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>1276</v>
+      </c>
       <c r="G22" s="4">
         <v>20</v>
       </c>
@@ -10334,9 +10240,9 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>9</v>
@@ -10346,7 +10252,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -10366,9 +10272,9 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>9</v>
@@ -10398,9 +10304,9 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>9</v>
@@ -10410,7 +10316,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -10430,9 +10336,9 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>9</v>
@@ -10442,7 +10348,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -10462,9 +10368,9 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>9</v>
@@ -10474,7 +10380,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -10494,9 +10400,9 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>9</v>
@@ -10506,7 +10412,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -10526,9 +10432,9 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>9</v>
@@ -10538,7 +10444,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -10558,9 +10464,9 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>9</v>
@@ -10570,7 +10476,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -10590,9 +10496,9 @@
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>9</v>
@@ -10602,7 +10508,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -10622,9 +10528,9 @@
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>9</v>
@@ -10634,7 +10540,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -10654,9 +10560,9 @@
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" ht="198" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="198" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>9</v>
@@ -10666,7 +10572,7 @@
         <v>21</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -10686,9 +10592,9 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>9</v>
@@ -10698,7 +10604,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -10718,9 +10624,9 @@
       </c>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>9</v>
@@ -10730,7 +10636,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -10750,9 +10656,9 @@
       </c>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>9</v>
@@ -10762,7 +10668,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -10782,9 +10688,9 @@
       </c>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="99" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>9</v>
@@ -10794,7 +10700,7 @@
         <v>21</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -10814,9 +10720,9 @@
       </c>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>9</v>
@@ -10826,7 +10732,7 @@
         <v>21</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -10846,9 +10752,9 @@
       </c>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>9</v>
@@ -10858,7 +10764,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -10878,9 +10784,9 @@
       </c>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>9</v>
@@ -10890,7 +10796,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -10910,9 +10816,9 @@
       </c>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>9</v>
@@ -10922,7 +10828,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -10942,9 +10848,9 @@
       </c>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>9</v>
@@ -10954,7 +10860,7 @@
         <v>21</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -10974,9 +10880,9 @@
       </c>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>9</v>
@@ -10986,7 +10892,7 @@
         <v>21</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
@@ -11006,9 +10912,9 @@
       </c>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>9</v>
@@ -11018,7 +10924,7 @@
         <v>21</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
@@ -11038,9 +10944,9 @@
       </c>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>9</v>
@@ -11050,7 +10956,7 @@
         <v>21</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -11071,7 +10977,13 @@
       <c r="J45" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J45" xr:uid="{245A22AA-6EFF-4096-95DD-32A04A8B84C6}"/>
+  <autoFilter ref="A1:J45" xr:uid="{245A22AA-6EFF-4096-95DD-32A04A8B84C6}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="주관식"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11083,7 +10995,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F97" sqref="A1:J99"/>
     </sheetView>
   </sheetViews>
@@ -14072,7 +13984,7 @@
         <v>993</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>414</v>
@@ -14112,8 +14024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD593EEF-3509-4503-9B26-FAE0945546CE}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14173,7 +14085,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4">
@@ -14201,7 +14113,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4">
@@ -14229,7 +14141,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4">
@@ -14257,7 +14169,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4">
@@ -14285,7 +14197,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4">
@@ -14313,7 +14225,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4">
@@ -14341,7 +14253,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4">
@@ -14369,7 +14281,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4">
@@ -14397,7 +14309,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
@@ -14425,7 +14337,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4">
@@ -14453,7 +14365,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4">
@@ -14481,7 +14393,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4">
@@ -14509,7 +14421,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4">
@@ -14537,7 +14449,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4">
@@ -14565,7 +14477,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4">
@@ -14593,7 +14505,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="4">
@@ -14621,7 +14533,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4">
@@ -14649,7 +14561,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4">
@@ -14677,7 +14589,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4">
@@ -14705,7 +14617,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4">
@@ -14733,7 +14645,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4">
@@ -14761,7 +14673,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4">
@@ -14789,7 +14701,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4">
@@ -14817,7 +14729,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1103</v>
+        <v>1277</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4">
@@ -14845,7 +14757,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4">
@@ -14873,7 +14785,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4">
@@ -14901,7 +14813,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4">
@@ -14929,7 +14841,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4">
@@ -14957,7 +14869,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4">
@@ -14985,7 +14897,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4">
@@ -15013,7 +14925,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4">
@@ -15041,7 +14953,7 @@
         <v>21</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4">
@@ -15069,7 +14981,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4">
@@ -15097,7 +15009,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4">
@@ -15125,7 +15037,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4">
@@ -15153,7 +15065,7 @@
         <v>21</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="4">
@@ -15181,7 +15093,7 @@
         <v>21</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4">
@@ -15209,7 +15121,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4">
@@ -15237,7 +15149,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4">
@@ -15265,7 +15177,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -15295,7 +15207,7 @@
         <v>21</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -15325,7 +15237,7 @@
         <v>21</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
@@ -15357,7 +15269,7 @@
         <v>21</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
@@ -15387,7 +15299,7 @@
         <v>21</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -15417,7 +15329,7 @@
         <v>21</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="E46" s="4">
         <v>1</v>
@@ -15447,7 +15359,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
@@ -15477,7 +15389,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
@@ -15507,7 +15419,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
@@ -15537,7 +15449,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="E50" s="4">
         <v>1</v>
@@ -15567,7 +15479,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
@@ -15597,7 +15509,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
@@ -15627,7 +15539,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E53" s="4">
         <v>1</v>
@@ -15657,7 +15569,7 @@
         <v>21</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="E54" s="4">
         <v>1</v>
@@ -15687,7 +15599,7 @@
         <v>21</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -15717,7 +15629,7 @@
         <v>21</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="E56" s="4">
         <v>1</v>
@@ -15747,7 +15659,7 @@
         <v>21</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
@@ -15777,7 +15689,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="E58" s="4">
         <v>1</v>
@@ -15807,7 +15719,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="E59" s="4">
         <v>1</v>
@@ -15837,7 +15749,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="E60" s="4">
         <v>1</v>
@@ -15867,7 +15779,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="E61" s="4">
         <v>1</v>
@@ -16126,8 +16038,8 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16187,7 +16099,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4">
@@ -16217,7 +16129,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
@@ -16245,7 +16157,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
@@ -16273,7 +16185,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
@@ -16301,7 +16213,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
@@ -16329,7 +16241,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
@@ -16357,7 +16269,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
@@ -16387,7 +16299,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
@@ -16415,7 +16327,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
@@ -16443,7 +16355,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
@@ -16471,7 +16383,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
@@ -16499,7 +16411,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
@@ -16527,7 +16439,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
@@ -16555,7 +16467,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4">
@@ -16583,7 +16495,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
@@ -16611,7 +16523,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
@@ -16639,7 +16551,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4">
@@ -16669,7 +16581,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4">
@@ -16697,7 +16609,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4">
@@ -16725,7 +16637,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4">
@@ -16753,7 +16665,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
@@ -16776,7 +16688,7 @@
         <v>127</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>128</v>
@@ -16803,7 +16715,7 @@
         <v>131</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>128</v>
@@ -16837,7 +16749,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4">
@@ -16865,7 +16777,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4">
@@ -16895,7 +16807,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="66" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4">
@@ -16923,7 +16835,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4">
@@ -16951,7 +16863,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4">
@@ -16981,7 +16893,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
@@ -17009,7 +16921,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4">
@@ -17037,7 +16949,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4">
@@ -17065,7 +16977,7 @@
         <v>21</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4">
@@ -17093,7 +17005,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4">
@@ -17113,7 +17025,7 @@
     </row>
     <row r="35" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>9</v>
@@ -17123,7 +17035,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4">
@@ -17151,7 +17063,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="61" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4">
@@ -17179,7 +17091,7 @@
         <v>21</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4">
@@ -17207,7 +17119,7 @@
         <v>21</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4">
@@ -17235,7 +17147,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4">
@@ -17263,7 +17175,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="61" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4">
@@ -17291,7 +17203,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4">
@@ -17319,7 +17231,7 @@
         <v>21</v>
       </c>
       <c r="D42" s="66" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4">
@@ -17347,7 +17259,7 @@
         <v>21</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4">
@@ -17377,7 +17289,7 @@
         <v>21</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4">
@@ -17407,7 +17319,7 @@
         <v>21</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4">
@@ -17435,7 +17347,7 @@
         <v>21</v>
       </c>
       <c r="D46" s="61" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4">
@@ -17463,7 +17375,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4">
@@ -17491,7 +17403,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4">
@@ -17519,7 +17431,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4">
@@ -17547,7 +17459,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4">
@@ -17575,7 +17487,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4">
@@ -17603,7 +17515,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4">
@@ -17633,7 +17545,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4">
@@ -17663,7 +17575,7 @@
         <v>21</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4">
@@ -17693,7 +17605,7 @@
         <v>21</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4">
@@ -17723,7 +17635,7 @@
         <v>21</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
@@ -17751,7 +17663,7 @@
         <v>21</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4">
@@ -17779,7 +17691,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4">
@@ -17809,7 +17721,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4">
@@ -17839,7 +17751,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="61" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4">
@@ -17867,7 +17779,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4">
@@ -17895,7 +17807,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4">
@@ -17923,7 +17835,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="62" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4">
@@ -17951,7 +17863,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="61" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4">
@@ -17979,7 +17891,7 @@
         <v>21</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4">
@@ -18007,7 +17919,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="61" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4">
@@ -18037,7 +17949,7 @@
         <v>21</v>
       </c>
       <c r="D67" s="61" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4">
@@ -18065,7 +17977,7 @@
         <v>21</v>
       </c>
       <c r="D68" s="61" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4">
@@ -18095,7 +18007,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4">
@@ -18125,7 +18037,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="61" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4">
@@ -18155,7 +18067,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="61" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4">
@@ -18183,7 +18095,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="61" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4">
@@ -18211,7 +18123,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="61" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4">
@@ -18241,7 +18153,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="61" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4">
@@ -18269,7 +18181,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="61" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4">
@@ -18299,7 +18211,7 @@
         <v>21</v>
       </c>
       <c r="D76" s="64" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4">
@@ -18327,7 +18239,7 @@
         <v>21</v>
       </c>
       <c r="D77" s="61" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4">
@@ -18355,7 +18267,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="61" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4">
@@ -18383,7 +18295,7 @@
         <v>21</v>
       </c>
       <c r="D79" s="61" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4">
@@ -18411,7 +18323,7 @@
         <v>21</v>
       </c>
       <c r="D80" s="61" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4">
@@ -18439,7 +18351,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4">
@@ -18467,7 +18379,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="61" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4">
@@ -18495,7 +18407,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="61" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4">
@@ -18523,7 +18435,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="61" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4">
@@ -18551,7 +18463,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4">
@@ -18579,7 +18491,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="61" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4">
@@ -18607,7 +18519,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="61" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4">
@@ -18635,7 +18547,7 @@
         <v>21</v>
       </c>
       <c r="D88" s="61" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4">
@@ -18663,7 +18575,7 @@
         <v>21</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4">
@@ -18691,7 +18603,7 @@
         <v>21</v>
       </c>
       <c r="D90" s="61" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4">
@@ -18719,7 +18631,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="62" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4">
@@ -18852,9 +18764,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077C2572-3B60-4CC4-9B56-2D7B8E4B1B30}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21855,8 +21767,8 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="A1:J40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23133,8 +23045,8 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23200,7 +23112,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -23235,7 +23147,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -23270,7 +23182,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -23305,7 +23217,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -23340,7 +23252,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -23375,7 +23287,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -23410,7 +23322,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -23445,7 +23357,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -23480,7 +23392,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -23515,7 +23427,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -23550,7 +23462,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -23585,7 +23497,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -23613,14 +23525,14 @@
         <v>555</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5">
         <f>VLOOKUP(C14,[5]참고사항!A$2:B$4,2,0)</f>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -23655,7 +23567,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -23690,7 +23602,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -23725,7 +23637,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -23760,7 +23672,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -23795,7 +23707,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -23830,7 +23742,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -23865,7 +23777,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -23900,7 +23812,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -23935,7 +23847,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -23970,7 +23882,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -24005,7 +23917,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -24040,7 +23952,7 @@
         <v>21</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -24075,7 +23987,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -24110,7 +24022,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -24145,7 +24057,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -24180,7 +24092,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -24215,7 +24127,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -24250,7 +24162,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="58" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -24285,7 +24197,7 @@
         <v>21</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -24320,7 +24232,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -24355,7 +24267,7 @@
         <v>21</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -24390,7 +24302,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -24425,7 +24337,7 @@
         <v>21</v>
       </c>
       <c r="E37" s="58" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -24460,7 +24372,7 @@
         <v>21</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -24495,7 +24407,7 @@
         <v>21</v>
       </c>
       <c r="E39" s="58" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -24530,7 +24442,7 @@
         <v>21</v>
       </c>
       <c r="E40" s="58" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -24565,7 +24477,7 @@
         <v>21</v>
       </c>
       <c r="E41" s="58" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -24600,7 +24512,7 @@
         <v>21</v>
       </c>
       <c r="E42" s="58" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -24635,7 +24547,7 @@
         <v>21</v>
       </c>
       <c r="E43" s="58" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -25062,11 +24974,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFB9EC0-483A-474F-93FF-D4C9BD746E02}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A1:J46"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26066,488 +25978,8 @@
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J46" xr:uid="{BAFB9EC0-483A-474F-93FF-D4C9BD746E02}"/>
+  <autoFilter ref="A1:J31" xr:uid="{BAFB9EC0-483A-474F-93FF-D4C9BD746E02}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26560,7 +25992,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42:F42"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28146,11 +27578,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A633BB2D-051A-43B4-86B7-9F26EEE85FAD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="A1:J39"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28198,7 +27631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>762</v>
       </c>
@@ -28229,7 +27662,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" s="32" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="32" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>764</v>
       </c>
@@ -28260,7 +27693,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" s="32" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="32" customFormat="1" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>766</v>
       </c>
@@ -28291,7 +27724,7 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" s="32" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="32" customFormat="1" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>768</v>
       </c>
@@ -28322,7 +27755,7 @@
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" s="32" customFormat="1" ht="99" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="32" customFormat="1" ht="99" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>770</v>
       </c>
@@ -28353,7 +27786,7 @@
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>770</v>
       </c>
@@ -28384,7 +27817,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>773</v>
       </c>
@@ -28415,7 +27848,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" s="32" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="32" customFormat="1" ht="180" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>775</v>
       </c>
@@ -28446,7 +27879,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" s="32" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="32" customFormat="1" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>777</v>
       </c>
@@ -28477,7 +27910,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>779</v>
       </c>
@@ -28508,7 +27941,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>781</v>
       </c>
@@ -28539,7 +27972,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>783</v>
       </c>
@@ -28570,7 +28003,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>785</v>
       </c>
@@ -28601,7 +28034,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>786</v>
       </c>
@@ -28632,7 +28065,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>787</v>
       </c>
@@ -28663,7 +28096,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>787</v>
       </c>
@@ -28694,7 +28127,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>790</v>
       </c>
@@ -28725,7 +28158,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>792</v>
       </c>
@@ -28756,7 +28189,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>794</v>
       </c>
@@ -28787,7 +28220,7 @@
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>796</v>
       </c>
@@ -28818,7 +28251,7 @@
       </c>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>798</v>
       </c>
@@ -28849,7 +28282,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>800</v>
       </c>
@@ -28880,7 +28313,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>802</v>
       </c>
@@ -28911,7 +28344,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>804</v>
       </c>
@@ -28942,7 +28375,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>806</v>
       </c>
@@ -28973,7 +28406,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>808</v>
       </c>
@@ -29004,7 +28437,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>810</v>
       </c>
@@ -29035,7 +28468,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="32" customFormat="1" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>812</v>
       </c>
@@ -29359,7 +28792,13 @@
       <c r="J39" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J39" xr:uid="{A633BB2D-051A-43B4-86B7-9F26EEE85FAD}"/>
+  <autoFilter ref="A1:J39" xr:uid="{A633BB2D-051A-43B4-86B7-9F26EEE85FAD}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="주관식"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
